--- a/team9_bird_feeder_bom.xlsx
+++ b/team9_bird_feeder_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\BirdFeeder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EB2480-87F8-4DA4-A66A-D68655F29033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E7EC2-CF61-4454-962F-8488CA1FF281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="150" windowWidth="12390" windowHeight="10470"/>
+    <workbookView xWindow="735" yWindow="150" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team9_bird_feeder_bom" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
-  <si>
-    <t>Bill of Materials for Bird Feeder v1.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Modified: 2020.11.12</t>
   </si>
@@ -140,12 +137,33 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588-FSR03CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">556-ATTINY13V10PQ </t>
+  </si>
+  <si>
+    <t>426-SER0043</t>
+  </si>
+  <si>
+    <t>926-LM741CN/NOPB</t>
+  </si>
+  <si>
+    <t>B00LZV1ERG</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Bill of Materials for Bird Feeder v1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -980,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,57 +1012,61 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1052,22 +1074,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1075,22 +1100,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1098,22 +1126,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1121,22 +1152,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1144,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1158,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1172,13 +1206,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1186,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1200,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1214,19 +1248,22 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>37</v>
       </c>
-      <c r="G17" t="s">
-        <v>38</v>
+      <c r="H17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/team9_bird_feeder_bom.xlsx
+++ b/team9_bird_feeder_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\BirdFeeder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E7EC2-CF61-4454-962F-8488CA1FF281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7C0B6-CBBC-4D0F-8199-FB71ECD3821A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="150" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="765" windowWidth="12390" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team9_bird_feeder_bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Modified: 2020.11.12</t>
   </si>
@@ -103,21 +103,6 @@
     <t>Servo Motor</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Carbon Film Resistor</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -158,6 +143,108 @@
   </si>
   <si>
     <t>Bill of Materials for Bird Feeder v1.1</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator</t>
+  </si>
+  <si>
+    <t>LM7805CT/NOPB</t>
+  </si>
+  <si>
+    <t>926-LM7805CT/NOPB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>7.4V Lithium Battery</t>
+  </si>
+  <si>
+    <t>HHZ</t>
+  </si>
+  <si>
+    <t>B07Q2CFRKW</t>
+  </si>
+  <si>
+    <t>JST Right-Angle Connector TH 2-Pin</t>
+  </si>
+  <si>
+    <t>PRT-09749</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>474-PRT-09749</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RT0805FRE101KL</t>
+  </si>
+  <si>
+    <t>603-RT0805FRE101KL</t>
+  </si>
+  <si>
+    <t>RT0201FRE0710KL</t>
+  </si>
+  <si>
+    <t>603-RT0201FRE0710KL</t>
+  </si>
+  <si>
+    <t>AT0402DRE07100KL</t>
+  </si>
+  <si>
+    <t>603-AT0402DRE07100KL</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C334K8RACAUTO</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor SMT, 0.33uF</t>
+  </si>
+  <si>
+    <t>Thin Film Resistor, 100K</t>
+  </si>
+  <si>
+    <t>Thin Film Resistor, 10K</t>
+  </si>
+  <si>
+    <t>Thin Film Resistor, 1K</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor SMT, 0.1uF</t>
+  </si>
+  <si>
+    <t>80-C0603C334K8RAUTO</t>
+  </si>
+  <si>
+    <t>80-C0402C104K8P7411</t>
+  </si>
+  <si>
+    <t>C0402C104K8PAC7411</t>
   </si>
 </sst>
 </file>
@@ -641,9 +728,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,14 +1100,14 @@
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,10 +1176,10 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,10 +1202,10 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,10 +1228,10 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,10 +1254,10 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,13 +1265,25 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,10 +1294,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,10 +1320,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,10 +1346,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,13 +1369,25 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
+      <c r="H16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,22 +1398,100 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
+      <c r="H20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/team9_bird_feeder_bom.xlsx
+++ b/team9_bird_feeder_bom.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\BirdFeeder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outsi\Documents\school\ECE411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7C0B6-CBBC-4D0F-8199-FB71ECD3821A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD95610B-E832-4D6E-ACD8-19BF81462455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="765" windowWidth="12390" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team9_bird_feeder_bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
-  <si>
-    <t>Modified: 2020.11.12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>source file: ece_411_team9_bird_feeder.brd</t>
   </si>
@@ -245,12 +253,27 @@
   </si>
   <si>
     <t>C0402C104K8PAC7411</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Qty Cost</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Modified: 2020.12.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,7 +707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -727,15 +750,27 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -763,6 +798,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1089,74 +1125,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1164,25 +1219,32 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>$I8*$B8</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1190,25 +1252,32 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="J9" s="4">
+        <f>$I9*$B9</f>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1216,25 +1285,32 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J20" si="0">$I10*$B10</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1242,25 +1318,32 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1268,25 +1351,32 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1294,25 +1384,32 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1320,25 +1417,32 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1346,25 +1450,32 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1372,25 +1483,32 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1398,25 +1516,32 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
       <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11.36</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1424,25 +1549,32 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1450,25 +1582,32 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1476,25 +1615,50 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
+      <c r="I20" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="4">
+        <f>SUM(J8:J20)</f>
+        <v>43.58</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
